--- a/SEM-4/Algorithms-Lab/lab8-TransformAndConquerII/lab8.xlsx
+++ b/SEM-4/Algorithms-Lab/lab8-TransformAndConquerII/lab8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIT-CSE-Labs-2023-26\SEM-4\Algorithms-Lab\lab8-TransformAndConquerII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7E35D1-3529-4F56-ADD3-2101D86E09A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010057F4-CB2D-4899-A190-D5646FD7B9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,10 +526,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$25</c:f>
+              <c:f>Sheet1!$A$20:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -547,16 +547,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$B$25</c:f>
+              <c:f>Sheet1!$B$20:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -574,6 +577,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -581,7 +587,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0963-4267-955B-92F6AE76A602}"/>
+              <c16:uniqueId val="{00000000-DDC3-4827-A828-1DAED8A4202F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -593,11 +599,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1348485920"/>
-        <c:axId val="119105264"/>
+        <c:axId val="354424271"/>
+        <c:axId val="349169455"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1348485920"/>
+        <c:axId val="354424271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,12 +660,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119105264"/>
+        <c:crossAx val="349169455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119105264"/>
+        <c:axId val="349169455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1348485920"/>
+        <c:crossAx val="354424271"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1925,22 +1931,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED2F103-30BA-6F42-3F04-5FA5A1AD3F86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27A93A6-0869-7B19-2E6C-2612E5037FDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2362,6 +2368,14 @@
         <v>135</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
